--- a/biology/Zoologie/Characiformes/Characiformes.xlsx
+++ b/biology/Zoologie/Characiformes/Characiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Characiformes sont un ordre de poissons Actinoptérygiens, comprenant les characins et leurs semblables. Ils sont quelques milliers d'espèces différentes y compris les fameux piranhas et Tétras.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve les characins dans les lacs tropicaux et rivières de la plupart des pays d'Amérique du Sud, d'Amérique centrale, et d'Afrique centrale.
-La majorité de ces poissons sont carnivores, et les plus gros ont développé des dentitions parfois impressionnantes (avec une mâchoire supérieure rarement protractile et souvent des dents pharyngales). Ils sont pourvus d'une nageoire adipeuse, d'une nageoire pelvienne, et généralement d'écailles (sauf quelques rares espèces sud-américaines), mais pas de barbillons. La ligne latérale est souvent courbée, parfois discontinue[1]. 
+La majorité de ces poissons sont carnivores, et les plus gros ont développé des dentitions parfois impressionnantes (avec une mâchoire supérieure rarement protractile et souvent des dents pharyngales). Ils sont pourvus d'une nageoire adipeuse, d'une nageoire pelvienne, et généralement d'écailles (sauf quelques rares espèces sud-américaines), mais pas de barbillons. La ligne latérale est souvent courbée, parfois discontinue. 
 À l'origine, ces poissons étaient regroupés en une seule famille, les Characidae, qu'on avait incluse dans les Cypriniformes. Désormais ils sont répartis en quelque 15 familles différentes.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                            (14 juillet 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (14 juillet 2014) :
 famille Acestrorhynchidae Eigenmann, 1912
 famille Alestidae Cockerell, 1910 - Tetra africain
 famille Anostomidae Günther, 1864
